--- a/lista_estudiantes.xlsx
+++ b/lista_estudiantes.xlsx
@@ -31,7 +31,7 @@
     <t>ASISTENCIA</t>
   </si>
   <si>
-    <t xml:space="preserve">Feb 06 2022 </t>
+    <t xml:space="preserve">Feb 07 2022 </t>
   </si>
   <si>
     <t>Do you have the time to listen to me whine</t>
